--- a/xlsx/컴퓨터.xlsx
+++ b/xlsx/컴퓨터.xlsx
@@ -473,110 +473,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>삼성전자 삼성 DM500TDA-A58A</t>
+          <t>주연테크 D2 43GN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959000</v>
+        <v>498950</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>https://adcr.naver.com/adcr?x=NZez6nb0GH96JMYwZAIR0P///w==kC4WuPt7bgmxFQJk/C5tZM4j/XOA1KDgow8g4z8+8FdgCQV5OAvh7J70GzJv5xsb5NZf4uVYW87JOYCZwKGOv+A//GBuqqKw8QV0NEfLxpZjEQCwkLacDG7P3/OtegqFQO2YqGP7Q8TVzTGI20LdRjnouruSLVaCSsJlBK0iiSKJHzxWgQBy42N7//SdpSSTZnJckVASFJQ/Mug0BHpdhFOvEW138qP8Qc8gJ0wHJmO9GS6GE86S1USKNHhtMHv79AztOTvmfmBAYLMD5e82JEJp6b+MTXWRJtNgebN5PvdA4GIbKr7yOU7LTUV7PUMA48/RxaWSX5PHJSO1UBwIjpGdD1LjleYPMtzpvrGUTHcWua+mlrhaFsm6JpbaOD4YLFQM7Lt9bq0h0uEll+tDf0i+f+GGJmEIuld1dvP4k3uViKMBR+tdz+0f6QCLde+WdcL66clFhi1EIDZCadzFiyAJA6FDde2LhcFrXmryh+TJ8zFtYHJtuFZ0/2YZ3cDZE6T6FE3fEZs20O7HICogkL1P/0IyLemBndPEh3Tp02PQ0VdKAS2UfMWVXse9AM5QhH00btNEO9z8ps+SBPXfhOIa6EacsEJy5w0lNoQCs2gOzCiXIPPsrHQE9uFAG2RE5Gmd99k6Asg2nfa94IJC4KzPNSoxs1FqhrooF77TpXmBDBFJr0tnSDGR9RSzHwpcZqaEy9dpbgXpc+jVyfFMgGSC31KvE4bONMixyG7PkjR45wS9NiCMr6vEUl2HpD6jCS6cqmzqMlcwVkZsmWCzQNQ==</t>
+          <t>https://adcr.naver.com/adcr?x=m9USN9MQKj8KhcqWlj10WP///w==kIWSyq7N+11l4E4wYtfvufXt8VmHpRx/SaSbjp63qFsXsKG9ivXWb4f4U8LuluAwoNmXtXQ2Y1CsGX61DnSwPv78GPUJF6PlRg+WGT7YahBNrNpkKckdC7BJDeCz4fPXQyruOaupHRBhck3NhoxUMXiW3dHMiZQoUDunz/Cc3YpBx26ZqyRgdQoLCsVMU7InP+Kfe78s4B8hecpsX4D6uYHbijujS/NFInCs7R3iy7Ug1vPFJH7aq5nMdJQeLlZe5wf0HB3mKQkeiwIIuWUIbp/jCL+egL4cXAnHlElpTlbhMkNU6BzM0XeEjdfzdv+e5690qN8ilzJe0ZfsuHQsCVEI072lzktGGER8A9pTxuZEVgsibadAB4s2gbAjgnnYFkhkSr6WaLh0jb7g1CSaE0o4C3GTg1+00hcrEM3GFYI8m+J1qTtS1Oz3L0PjYfI0AYFqX1gfbDy1LCvtKlEYSc7kLxOnUBZiFchK1UjxxieOUke3ewkXQi8n1tE/C04YFq7EruOcUiVFOGn7qKKvlY3Pdl3LLWw8AAqYa+b3KzJ1ECXZG6ag2xyYGNCALqabN4LSygdUfxJ1PHgi0/zM4WYEM/3cbOAiR7Jp39o+fgeqs6DMHscr/TtkCsKt0FMZnZT9XtfsrM+SbC69rC4tPt6o6mgVqZf1nJ931NPjTzU/sIBlqcVL7l8AieTbYeIXca/5VEpMMb8AYQxiLmT7U5z5/Fz/RM6OxOlpDc1DzoYXCakpr4rrowkWfxZkJNuXCHWRYD8FHYEhIQW3ADQw0Gg==</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">주문하고 바로 다음날 오전 10시에 잘 받았습니다한컴 오피스 팩도 다른 상자로 같이 잘 왔구요~^^생각보다 많이 무겁지 않아서 박스 잘 옮겨 바로 설치했습니다 무선 마우스 키보드까지 안전하게 잘 담겨 왔구요 미리 사둔 삼성 스마트 모니터 27인치와 설치 했습니다컴 인터넷만 할 줄 알았지 설치 처음 해보는 거라 많이 겁먹고 열었는데생각보다 쉽네요 ㅋㅋ 그냥 전원만 꽂으면 되네요 ㅎ구입전에 전화로 궁금한 점 문의드렸는데 친절히 제일 저렴히 구입 할 수 있는 방법도 알려주시고성능이나 사용상 문의사항 잘 해결해 주셔서 바로 결정할 수 있었어요카톡으로도 문의 드렷는데 답변 잘 해주셔서 너무 감사했습니다6년된 올인원 PC 쓰다가 바꿨더니 역시 속도 빠르고 버벅임 전혀 없이 좋아요 매우 만족합니다다만...게임 안하니까 필요없겠다 싶어서 기본 사양으로 구입했는데   이왕에 사는 거 하드랑 그래픽카드 같은거 추가할껄 그랬다 싶기도 하긴 해요 잘 사용하고 또 이용하겠습니다
-음.. 보통 리뷰 쓰면 간단하게 좋은점만 쓰고 끝냈는데 100글자나 적어야 이벤트 응모 된다고해서 좀 디테일하게 적어봅니다요약해서 말하면 좀 많이 아쉽네요. 일단 구입은 DM500TDA-A58A 모델 3대 했구요. 3대 모두 SSD 512, HDD 1테라, 램 16기가로 업그레이드 했습니다.팜핑도어는 드라이버 없이 열수 있어서 좋았습니다. 구매고객 사은품은 무선 키보드 마우스 세트인데, 건전지 교체 주기 확인 때문에 삼성서비스센터 전화해서 모델명 조회해보니제가 구입한 모델에 포함된 키보드마우스세트더라구요 이걸 왜 사은품이라고 광고 하는지 모르겠습니다.특별사은품은 한컴오피스(한컴, 이지포토, 한컴스페이스, 릭스폰트) 증정인데 이중에 릭스폰트는 이미 등록 유효기간이 지나있습니다.포토리뷰 이벤트는 신청방법이 구매확정 후 문의글(Q&amp;amp;A)로 신청 하라고 되어 있는데 해당 판매 페이지에는 '상품후기', '이 상품이 궁금해요' 이 두 가지 게시판이 있습니다리뷰 이벤트를 문의글에 적으라고 하니 정확하게 어디에다 적으라는 말인지 모르겠어요다음은 업그레이드 관련된 점에 대한건데요1. SSD : 브랜드 pc인 삼성데스크탑을 구입하였으니 기존에 장착된 ssd는 삼성250gb라고 생각됩니다. 인터넷 최저가 기준으로 가장 저렴한 모델이 7만원 정도 하구요업그레이드된 512gb 제품은 cl1-8d512 제품으로 처음들어보는 제조회사(solid state storage)인데 해당 모델명으로 네이버에 검색하면 라이트온이라는 다른 회사에 같은 모델명으로 인터넷 최저가 92000원 정도입니다 그마저도 네이버 조회시 판매몰은 2개밖에 없구요129000-&amp;gt;89000원으로 특가혜택인데 이것이 과연특가 혜택인지 의문이 듭니다. 적어도 동급으로 용량을 업그레이드 해야하는게 아닌가 싶구요.하단에 당구장 표시로 'SSD 업그레이드시 기본동봉 발송되며 장착을 원하는 경우 배송 요청 사항에 기재 바랍니다.' 라는 문구가 있는데해당문구 대로라면 업그레이드 하면 기존에 장착된 256gb SSD는 같이 보내줘야 하는게 아닌가 싶은데 받지 못했습니다2. 램 : 해당 제품은 특별히 문제는 없지만 보통 8 + 8 듀얼로 구성하면 같은 주차 모델로 보내는 경우가 대부분인데 전혀 다른 주차 부품이 왔네요. 조금만 더 신경 썼더라면 하는 점인데 살짝 아쉽습니다.3. HDD : 이건 확인해보기 귀찮아서 그냥 용량만 확인하고 말았습니다.결론 : 기본 모델에 대한 만족도는 좋지만 업그레이드 되는 부품에 대한 특가 혜택은 정말 이해할 수가 없다.이상 포토리뷰 이벤트 응모합니다.
-10년정도 쓴 삼성컴퓨터가 이제 곧 고장날 것 같은 다급한 상황이라 급히 구매했어요.컴퓨터는 노트북을 비롯해 계속 삼성꺼만 써왔기에 이번에도 고민하지 않고 삼성으로 결정~저처럼 컴알못은 무조건 삼성 공식 인터넷 판매처에서 구매해야죠. 코잇이 있어서 정말 다행이지요~상품 상세 설명이 잘 되어있어서 코잇에서 판매중인 다른 삼성 본체들과 비교해보고 선택하기 좋았습니다.다른 구매자들이 질문한거에 정성스럽게 답변해주신것 컨닝도 하고요 ㅎㅎ돈 아끼려고 조립품을 사기엔 as가 걱정스럽고시간이 곧 돈인 세상에서 다른 사람에게 업데이트나 고장상담 등 도움 받는 것도 너무 미안한 일이구요.삼성 컴퓨터 원격 as서비스 등등을 사후 관리가 너무 잘되서 좋아요. 몇가지 추가옵션을 했음에도 불구하고 주문한지 3일만에 받았어요.  요청사항도 꼼꼼히 반영해주셨고 궁금한 것도 금새 답변해주셔서 정말 좋았습니다.사은품으로 한컴 받아 설치하고 ms office도 코잇에서 구매했어요. 덕분에 번거롭게만 느껴져 미뤘던 컴퓨터 교체를 무사히 마쳤습니다. 감사합니다 ^^
-조립컴퓨터 쓰다가 컴퓨터가 다운되고 속도도느려서 요번에 삼성정품 윈도우10이 내장된 DM500TDA-A58A 데스크탑 구매하게 되었습니다. 최신형 I5 11세대급에 메모리8기가,SSD256GB, 내장형 그래픽좋은 성능에 만족합니다. 디자인도 무척마음에 들고 사이즈도 적당합니다.
-배송 신속하고 정확하네요 튼튼한 박스에 포장도 완벽하네요 무선키보드와 무선마우스가 기본 들어있어요 마우스패드는 없어요 조립컴퓨터와는 완전 다르게 엄청 무겁고 튼튼한 케이스 입니다 기본적으로 갖출건 다 갖추었네요 각종 단자부터 무선와이파이와 SD카드 단자등 다 있어 사용하기 매우 편리할 듯 싶습니다 오픈도 쉬워서 업글 바로 가능하네요 메모리와 하드디스크 정도와 파워 힘만 딸리지 않는다면 훗날 그래픽카드까지 가능하겠어요 빠르고 좋아요 잘 사용하겠습니다
-11세대 신형 삼성데스크탑이 나왔다기에 바로 획득했습니다 이전세대보다 CPU 성능과 내장그래픽 성능이 좀 나아져 속도가 더 빠른 듯 싶기도 합니다 NVMe SSD 탑재가 아무래도 근래에 기본이기도 하고 일반보단 훨 속도가 빠르다보니 사용에 있어서 답답함이 없습니다 팝핑도어라 하여 드라이버 없이도 쉽게 도어가 열립니다 USB C 타입 그래픽 출력 단자와 무선랜이 기본 탑재라서 더욱 만족스럽습니다 기본제공하는 앱부분도 많은데 좀 더 사용해 봐야겠습니다 만족합니다
-탁월한 가성비에 브랜드 데스크탑이라는 안정성까지 겸비한 제품입니다.사무용도, 인터넷 서핑, 동영상 시청용도로는 충분한 제품이라고 판단합니다. 그리고 블루투스 기능도 있어서 기존에 가지고 있던 블루투스 스피커에 연결하여 잘 사용하고 있습니다.  그리고 주문하고 다음날 도착할 정도로 배송 또한 신속하였던 점이 만족스러웠습니다.(데스크탑와 무선 키보드/마우스 등이 동봉된 박스 1개와 사은품인 한컴 오피스 팩이 동봉된 작은  박스 1개... 이렇게 총 2개의 박스가 안전하게 포장되어 왔습니다) 마지막으로... 열기쉬운 팝핑도어 방식이라서 추후에 내부청소나 업그레이드가 용이하다는 점이 또 하나의 장점이 아닐까 합니다. 잘 사용하겠습니다. 감사합니다.
-본체 주문후 2시간만에 퀵서비스로 받았습니다. 팝핑 도어때문에 업그레이드가 편하게 되어있어서 메모리 추가 하고 D:드라이브용 하드디스크 추가해서 기타 프로그램 설치 중입니다.WIN10 Home 포함이라 특별히 셋팅은 불필요해서 좋구요.업그레이드 버젼은 주문이 밀려서 오늘 받을수 없다하여 기본모델 받아서 개인적으로 부품들 추가 하고있는데 서비스 센터에서는 DDR4 2933 8G라고 안내 받았는데 실제 장착 메모리는 DDR4 3200 8G이네요. 참고하세요. 운영체제는 WIN10 Home 20H2 버젼입니다. 전화통화로 배송 2시간 정도 생각하시라 얘기해주셨는데 거의 정확했구요.. 물건 자체는 삼성 정품이라 더 말씀드릴건 없는듯 하네요.참 메모리와 M.2 SSD 삼성제품입니다. 판매자님 빠른배송 해주셔서 감사합니다.
-기존 갖고 있는 컴퓨터가 상태가 안좋아서 이번에 삼성전자에서 i5-11세대110400 급 컴퓨터를 구입하게 되었습니다. 저장장치 m.2 250GB와 메모리8GB,내장형그래픽 다 마음에 듭니다.  업그레이드 메모리도 추가가능하고 저장장치도 추가가능하고 나중에 외장형 그래픽카드 추가 구매해서 성능좋은 게임을 하고싶습니다. 감사합니다.
-우선 디자인도 깔끔하고 사이즈도 적당한 게 책상 아래든 위든 어디에 놓아도 괜찮은 제품입니다. 전원버튼에 들어간 네온 라이트가 인상적이고 가격대비 성능이 회사에서 사무용 컴퓨터이나 가정집에서 일반적인 용도로 사용하기에 좋은 선택이 될 것 같네요. 인텔 11세대는 전력효율도 높아서 발열이나 전력소모 측면에서도 휼륭할 것으로 보입니다. 아무리 조립식이 좋다고 하지만 기본적으로 삼성의 고객 서비스는 그 차이를 훨씬 웃돌 정도로 만족스럽고 수리 as도 삼성에서 관리하니 괜히 사설 이용해서 사기당하거나 그럴 걱정이 없어서 좋습니다. 어머니가 유튜브를 자주 보시고 건강제품 관련해서 웹서핑을 좀 하시는데 핸드폰은 눈이 아프고 불편하시다고 하셔가지고 하나 놔드리려고 합니다.
-구매 제품을 결정한 후에 1주일 동안 가격 모니터링을 하고 최저가인 여기서 구매를 결정했습니다. 구매시 RAM, SSD, HDD까지 업그레이드 해서 구매를 했는데 컴푸터 속도가 예상외로 빨라서 대만족입니다. 컴퓨터 가격이 급변하는 것은 좀 아쉬운 것 같습니다. 하여튼 구매 당시에는 최저가로 산 것에 만족해야죠. 온라인 강의, 비대면 회의로 사용하기에는 전혀 문제가 없습니다.
-세련된 블랙의 슬림한 디자인으로 새롭게 나왔군요! 은은하게 빛나는 아쿠아 블루 라이팅 버튼이 너무나도 이쁘네요~더 빠르고 강력한 성능의 11세대 Intel 코어 i5 프로세서로 컴퓨터가 더욱 더 빛이 나는군요~! HDMI와 USB-C포트로 2개의 디스플레이에서 4K의 영상이라니~ 너무나도 두근두근합니다!지금은 없지만 예전 데스크탑 있었을때 케이스를 열기위해서 드라이버와 나사를 몇번 돌렸는지도 모르겠네요. 진짜 불편했었는데 이번 삼성 데스크탑은 팝핑도어로 사용자의 편의를 생각해주는 느낌이 들어 더욱 매력적이네요. 쉽게 열고 쉽게 업그레이드를 할수 있고 내부 청소까지 빠르고 편리하게! 완전 맘에 쏘~옥!256GB NVMe SSD를 기본으로 탑재를 해주셨다니 얼마나 더 빨리 작업을 할 수 있을지 너무나도 기대되고 갤럭시 폰을 사용하니 연동은 얼마나 안정적으로 될지 기대됩니다!
-아이들 원격수업과 인강때문에 컴퓨터가 필요하여  조립 컴퓨터를 구입할지 브랜드컴퓨터를 구입할지 엄청 고민이 많았어요...  삼성컴퓨터 정품에 I5 11세대인데... 카드할인까지 받아서 엄청 저렴하게 구입했어요. 윈도우도 설치되어 있고, 워드작업을 많이하는데 한컴 오피스팩도 제공이 되니... 정말이지 조립컴퓨터보다 더 저렴하게 구입한 것 같아요. 컴퓨터는 고장이 많지 않지만 삼성정품이니까 이상있음 AS받기도 편할 것 같아요. 배송도 빨라서 더 만족스러웠어요.
-초등학생때 구매하고 데스크탑을 바꾼적이 없습니다ㅠㅠ 제발 이번 기회를 통해 데스크탑 바꿀 수 있는 기회를 얻으면 좋겠네요. 삼성이라는 브랜드의 제품만 보면 신뢰가 갑니다. 따지거나 이럴 필요 없이 품질 하나는 믿고 갈 수 있겠네요^^ 삼성의 빠른 데스크탑으로 수강신청, 백신 광클 다 성공할 수 있었으면 좋겠습니다!
-컴퓨터를 처음 구매합니다. 여러제품을 고민하다가 삼성전자 데스크탑 DM500TDA-A58A 삼성 정품 컴퓨터가 마음에 들어서 구매했습니다. 색상도 검정색에 마음에 들고요 디자인도 마음에 듭니다. 오래쓸 컴퓨터 구매했습니다. 성능,속도 모든것이 마음에 듭니다. 잘쓰게습니다. 감사합니다.
-삼성전자 삼성 데스크탑 DM500TDA-A58A 컴퓨터 본체 빠른배송 감사합니다. 기존조립컴퓨터가 고장나서 요번에 성능 좋은 컴퓨터를 바꾸려고 했는데  i5 11세대급으로 성능좋고 가성비좋은 삼성정품컴퓨터받아서 써보니 무척마음에 듭니다.잘쓰겠습니다.
-당장 이틀안에 컴퓨터가 급해서 필요해서 샀는데 배송진짜  엄청 빨리 오고 데스크탑 안 고장나게 포장도 엄청 꼼꼼히 잘되어 있네요. 사은품으로 주신 한컴 오피스도 써봤는데 너무좋아요~!!!!ㅎㅎ 컴터는 확실히 빠르네요. 아직 게임은 안깔아봐서 모르지만 그래픽 추가한거 넘 기대돼요 ㅎㅎㅎ  그리고  제가 여쭤볼게 많아서 판매자분과 몇번 통화했는데 통화 할때마다 친절하게 잘 응대하여 주셔서 넘넘 감사합니다!!!&amp;gt;_&amp;lt; 잘쓸게용. 또 컴터 필요한 일 생기면 여기서 살거에요.ㅎㅎ
-오랜만에 데스크탑 바꾸려고 알아보다가 삼성에서 인텔11세대 출시한 거 알고 구매했습니다! 특히 코잇이 삼성공식 판매점이라 여기서 믿고 구매했습니다~~ 문서작업이 정도 하기때문에 58A가 성능이 가장 적절해서 샀는데 보자마자 마음에 들었습니다. 다만 당일 발송이라 했는데 생각보다 늦게 도착했네요 ㅜㅜ 아무튼 깔끔하고 마음에 들어요~~~!
-아주 빠른 배송으로 제품 잘 받았습니다. 일단 Nvme 장착으로 부팅 속도가 아주 빠르고 윈도우가 설치되어 있어서 바롤 사용할 수 있어 좋습니다. 케이스 디자인도 이쁘고 아주 맘에 듭니다. 키보드 마우스도 무선으로 아주 좋네요. 많이 파시고 번창하세요.
-지금까지 20년 정도 컴퓨터를 사용하면서 삼성 데스킅압을 써보기 전과 후로 나뉩니다.삼성 이외의 컴퓨터를 사용했을 때는 어딘가 모를 답답함이 느껴지고나와는 잘 맞지 않는다는 느낌이었는데,삼성 데스크탑을 쓰고 나서부터는 잘 맞고, 성능과 서비스 부분까지 상당히 만족 스러웠습니다.삼성은 컴퓨터 외에도 휴대폰,가전 모두 만족하며 사용하고 있고 휴대폰은 S21U입니다.삼성의 기업은 우리나라를 대표하는 기업이고 저는 그 기업의 주주가 되어있습니다.삼성에 대한 저의 애정과 열정을 표현하고, 이번에 새로 나온 삼성의 데스크탑을 써보고 싶습니다.삼성전자 항상 응원합니다!
-</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9927715659141541</v>
-      </c>
-      <c r="F2" t="n">
-        <v>103.5215397199326</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>삼성전자 삼성 DM500SCA-A78BA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>https://adcr.naver.com/adcr?x=twH5LMNyZLaqK15M4FSsWP///w==kyUCRH+zWxOhgdLqNLZsNjT/rEOjMP9CiuOCwjCuZD7hDY0zUOFyAXX9OTq7fB8VNKW4QObpSMDl7n1rLq0jZKP3wxM6zFHXA+d9NPeFEG0KqIH1pghhNRH/mBqWzZN3EQgx1rqUG9bRbXM+UxTSqFVKAEMCGfCG99TgXbmuydJE0kDtlhHjA2fkrdzRy2oRXeQf3FoT27cf74nXelVIcg8/EK/eblovQ+8pZn3Xr89UoYN+T/qe+dQvzuR5SwVKQtNUqObGu/7WmqQC9zqUDAZ2CQCLrcuhWQr/r+i+O+p6C2kA9PlQKkVPOo6jYLXXgw3OtsQVV7F2jMbtqHiT9IHpFOdbzn68NLBLT7vNADQ+3QT7pthA3i5KsOd7ic0GHgdqGFycf+oXfPWLecti3IdJLn1mueZNTrt3Bg+6liN2MwewAJcpjNhBK9559dAi1UMOvKT24b01+Q87ojqO8Tog8cWXHc3+NguinhVGR9zp2Ac+7Vk6pa55+wPMSBXOH4Bj+0fVaEMj4Jlq7i5CjmfTnBsC21u+Lv08SSuzARaRoa5ZxR452j4PseFcYqqEbGtQ/cdu8CRziv7MoITnuhEObwr+fHlWg517eV5zJf0qABr8kQPChpntKAyz9moHJnQi1lzxPhFVf5lAJJKNvmbHRU6NL69i07mfi3NgPGN3GVrTLGvTATm4aY0kxFpD8KOJfu9P8Tnn630aPL2Rrs32l1AkfHtmzh1AZAX31nqwGpPeJW7jhcA0XoZ+/ecM9KKZxsXnr0zhhlv7HfsJlKA==</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">내년에 PC를 바꾸려고 했지만, 모니터 새로 사면서 PC까지 질렀네요. 모니터는 염두에 두던 걸 샀고, PC는 이곳에서 샀는데 잘 산듯해요. 구성, 이벤트 좋은데 가격까지 좋았습니다. 포장, 배송상태 좋았어요. 퀵 무료를 못봐서 택배로 받았는데, 걱정 많이 했거든요.컴터 잘 모르는 사람은 브랜드가 최고고, 특히나 서비스가 좋은 삼성이죠! PC바꾸면 새 제품이란 기쁨도 잠시, 하루는 스트레스 잖아요. 설치 할 것도 많고 설정할 것도 많고. 그런데 이벤트로 윈도우10 설치되어 나와서 만족했어요. 슬림하고 조용하고, 사용감 좋습니다. 잘 산것 같아요. :) 이벤트로 받은 Rixfont 1년 이용권의 등록 기한이 한참전에 끝났던데요.;; 5월 31일까지라 7월에 제품을 구매한 저는 그저 웃음만.
-집에서 문서, 사진작업하려고 샀는데 정말 탁월한 선택이였어요! 윈도우 포함에 선연결도 어렵지않아 금방 연결했고 전원버튼 눌렀더니 속도도 빠르고 작동도 아주 잘 되었어요. 24인치 모니터도 추가로 구매했는데 배젤이 얇아서 화면이 더 넓어보이더라구요. 동영상이나 영화볼 때 너무 좋아요! 데스크탑 컴퓨터라면 단연 이 상품이 최고네요^^ 배송도 다음날 바로 왔어요.
-데스크탑을 바꿀마음으로 브랜드는 삼성으로 정한 후 서핑한 결과 이왕이면 사양좋은 컴퓨터가 좋겠다싶어 intel i7으로 결정했습니다. 단순 문서나 서핑 작업 외 다른것들을 시도하고 배우기에 적합한것 같아요!본체디자인도 깔끔하고 슬림해서 이쁘고부팅속도도 기존꺼보다 빨라 좋아요!
-구매 후 빠른 대응으로 응대해 주셨고 퀵으로 보내주셔서 정말 빨리 받았습니다디자인도 무난하고 팬소음도 적어 더 만족스럽습니다듀얼 모니터를 쓰려고 모니터 2대를 같이 구매했는데 케이블이 HDMI만 있어 RGB나 DVI케이블을 하나 별도 구매해야하는 아쉬움이 있었습니다빠른 성능을 기대해 봅니다
-지금까지 30년 직장생활하면서 한번도 국내브랜드 PC를 사용하지 않았는데 이제는 어쩌면 내 생애의 마지막 PC가 될 수도 있다는 생각으로 장기적으로 AS을 고려해서 삼성의 최신제품을  구매하게 되었음. 외관 디자인은  요란한 LED등 없이 깔끔함. 슬림형은 처음이라 HDD 장착공간이 없을까 걱정했는데 2개 장착할 수 있는 스페이스가 마련되어 있고(조금 장착이 까다로움) 전원케이블도 프로비젼되어 있어서 쉽게 SDD와 HDD 한개를 추가하고 부팅을 하니 자동으로 MS 윈도우 작동하고 하드디스크가 잘 인식이 되어 아주 쉽게 세팅을 마쳤음. 작동속도는 core i7이므로 문제없고 기대한대로 삼성에서 지속적으로 업그레이드 및 운영관리로 PC는 이 모델로 마지막까지 갔으면 좋겠음.
-기존에도 삼성컴퓨터 10년 사용하다가 다시 삼성컴퓨터로 교체했습니다모니터 및 MS오피스 까지 새것으로.....또 10년간 사용할 요량으로 고사양으로.....한마디로 너무 빠릿빠릿해서 신세계를 경험하고 있습니다처음 접하는 윈도우 10이 아직은 낮설어서 찬찬히 익히고 있지만  휴대폰과 연결도 되고 ...신문명을 접하는 느낌입니다저같은  60줄인생 컴퓨터가 좀 서툰세대일수록  사용하기 편리한 삼성컴퓨터를 추천합니다
-비교적 사이트가 슬림해서 공간을 작게 차지하고 부팅속도도 빠르고 좋습니다.사용용도상 저장용량이 많이 필요하고 고속의 작업을 요구할 경우에는 SSD를 256G에서 512로 늘리는 것도 고려해 봄직하고, RAM도 키우시틑 것도 좋겠네요. 단순 저장인 경우에는 가격도 고려해야 하니 HDD를 추가 실장하는 것도 답이겠습니다.다만, 외장 연결시 SD나 mini SD 지원이 않됩니다. 그냥 USB만 있다보니 별도의 어댑터가 필요합니다. 결론은 전반적으로 만족합니다.
-슬림형 고사양 PC가 필요하여 구매합니다.최신형은 아니지만 10세대 i7 CPU이고 8GB 메모리에 256GB SSD로 구성되어 왠만한 작업에는 충분한 성능인거 같습니다.슬림형이라서 일단 책상이 넓지 않아도 충분히 설치가 가능하고 같이 구매한 24인치 모니터와도 잘 어울리네요
-배송도 빠르고, 개봉해서 확인했을때도 빠르게 작동하네요. 기존의 사용하던 컴퓨터도 사양이 낮지는 않았지만 확연하게 비교가 됩니다. 게임을 하지 않는 입장에서는 과도한 사양인것 같다는 생각이 들지만, 답답한 느낌이 들지 않아서 만족스럽네요.  정확한 설치, 빠른 배송 만족스럽습니다.
-배송 최고 만족입니다.주문 다음날 배송받았습니다.16램 512 1T 원도우10 한컴오피스팩 사양 정확히 업그레이드 도착!!이전에 쓰던 삼성올인원 16램 256 i3-8세대 보다성능 차이가 확실히 납니다.가격.. 품질.. 배송.. 전부 만점 드립니다.감사합니다.
-DMC500 SCA-A78BA SSD 512GB 교체 HDD 1TB 삼성메모리 16GB 데스크탑주변기기 HDMI케이블추가구성으로 구매했어요. 주문후 이틀만에 도착했고, 설치가 쉬웠어요. 슬림형으로 선택한 것도  잘 한거 같아요. MACafee백신이 유효기간 만료로 뜨구요.  무엇보다 빠른배송으로 사용을 빨리 할 수 있어 만족합니다.
-일단 배송 최고! 일요일 오후 늦게 결제했는데 화요일에 받았습니다. 부팅 속도 역시 데스크탑이네요. 데스크탑 사용하다 노트북으로 갈아타고 노트북에서 테블릿으로 갈아타서 사용하고 있었는데 코로나로 인해 재택근무를 하게되어 구입했습니다. 테블릿에 적응해서 살다가 오랜만에 데스크탑 모니터를 보니 너무커서 적응이 안되네요. 금방 큰 화면에 적응하겠죠~ 일단 너무 좋으네요. 한달 사용해보고 다시 후기 남길게요
-구매 전부터 여러 차례의 전화 질문에도 친절하게 답해주셨고, 당일 퀵으로 무료 배송받아 빠르고 편하게 이용 가능했습니다. 동일 모델 중 인터넷 판매가격도 가장 저렴하다고 생각하여 만족합니다. 참고로 설치는 초보자도 할수 있을 정도로 아주 쉬워요. 본체에 모니터, 전압, 키보드 등의 코드를 꽂고 컴퓨터 켜서 윈도우 계정 등록 후 와이파이만 연결하면 끝입니다. 앞으로도 컴퓨터 필요할 때마다 이 곳을 찾게 될 것 같습니다. 많이 파시길 바래요.^^
-배송이 엄청 빨리왔네요 ㄱㅅㅇ윈도우도 잘 설치되어있어서 금방세팅해서 사용했네요조용하고 빠르고 좋아요한대 더 필요해서 재구매하려합니다그런데 다시 들어오니 한컴행사가 생겻네요몇일전엔 없었는데 말이죠..사은품 선택 사운드바로 부탁드려요많이 파세요~
-오래동안 망설이다가 드디어 구매 했습니다.처음에는 i3 CPU 봤는데 I5 CPU 도 가격이 별로 차이가 안나서 i7 CPU 탑재모델 검색해봤더니 i7 CPU도 별로 차이가 안나서 큰맘 먹고 i7 CPU 탑재 모델로 구매 했습니다.배송은 방문 수령으로 선택했는데 전화 해서 직원분과 통화하다가 가깝다고 퀵으로 바로 보내준다고 해서 너무 감사했습니다.직원분이 친절하고 너무 좋았습니다.가격도 행사를 해서 저렴하게 잘 구매 했습니다.성능 좋은 제품을 저렴하게 잘 샀습니다.속도 빠르고 좋네요....삼성 이라서 믿고 구매했습니다.
-빠른 배송 만족합니다.어제 밤에 퀵 배송으로 주문하니 오늘 저녁에 바로 받아볼 수 있어서 편하고 좋습니다. 그리고 본체는 AS 원활하게 받으려면 아무래도 브랜드 컴퓨터가 좋을 것 같아서 삼성으로 골랐는데 디자인이며 성능도 문제없이 잘 돌아가네요. 많이 파세요~
-그동안 쓰던 컴퓨터가 많이 버벅거려 교체하게 되었습니다. 기왕이면 안정적이고 빠른 컴퓨터로 선택하고자 고민하던 차에 i7 본체를 선택하게 되었습니다. 게다가 SSD 부팅이라 더 빠른 속도를 체감할 수 있었습니다. 그리고 저장공간을 늘리기 위해 하드디스크를 추가하였고, 램도 8GB를 추가하여 16GB로 업그레이드 하였습니다.  전반적으로 만족합니다.
-코로나 때문에 비대면 활동이 많아지면서 가지고 있던 노트북으로 부족하여 데스크탑을 구입하게 되었습니다. 예전에 뚱뚱하던 본체만 생각하다가 얇고 가볍고 성능까지 좋은 본체를 받고보니 진작 구입할 걸 괜히 망설였다 싶어요. 속도로 너무 빠르고 좋습니다. 저는 랩과 ssd를 모두 업그레이드했어요. 고민하지 마시고 구입하셔도 될 것 같습니다.
-급히 쓰려고 바로퀵으로 받았고요(퀵비는 지원해주셔서 적게 들었구요~~) 깔끔한 화이트라서 밝고좋아요 속도빠르고요 10설치 되있어서  편하네요 필요한것들은 신랑이 설치해주고요 ~~오래동안 잘 쓸것같아요  귀찮게 해드려는데도~~상담에도 친절이 응해주셔서 감사합니다 ~~~
-노트북이 망가져서 노트북 살지 데스트탑 살지 엄청 고민하다가 구입했어요 테이블이 좁아서 데스크탑은 바닥에 두었는데 얇아서 좁은 공간에 쏙 들어가서 너무너무 만족합니다! 성능은 삼성이라 믿고 샀는데 역시나 속도도 빠르고 좋습니다!!가장 좋은건 역시 배송이 빠른것! 매우 만족입니다 :-)
-</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9956279993057251</v>
-      </c>
-      <c r="F3" t="n">
-        <v>79.71401115338071</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>주연테크 D2 43GN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>499000</v>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>https://adcr.naver.com/adcr?x=YuA2Lpkczt0gtKzhDuhZfP///w==kBbqn7PJkeuf9XM7cYEPeAHHLPEFG7TJFVocu2SbHucehKGPn1f7hbHwIMeNImBZLap/S5xmmJLxsG+LdzoZRAlje1D7mcZkmjwx52beRGrJadPW7zPfQjK6IHXQrdrA7lLSNGLhwjdARKJBK4PGtFxXbmv9SG7cMOyP+nTZyMtIqKGDpuqV//rU+6kLYR6HDR2NA8y8Dgbl3SPNrC9niCshQTgxN4MAjqm4K49mcgL8QhXI1Yw7Zbp7fUryo/4fMBro4kuDWlI951pJyPhqaiMW2LbIOeOXEnuMeUgf70zRKsDigkPnFBWXHiyAhPjnmsGbJEIgax5ER0NrPWsa01RdoAM0QFEZJsggwy9LvjdT1Hw2iFtac4VS+ipfC2+2dKQT30/W6yHU1K+eaYf/wITo8NgkZp1+TSpAcNtqaIO/+PJsIUqmlw+2nwQS6OiyhXtxF+jqUF8XpXgYVm5fCip9m1KgH++0zvma0f9pLsgBXes0Dq1O4Cz8xQ/f/8iSoZiO/RS8NCLnv6QD1wkdQe5cu6NW/UgAiT9gIPpkM5laOwdjJ/WvcIK/eibgDgwdcXNso7/nMgiT3XPzM2gU9Lgob2SkrwGeOX2G9t0XJCckcoxfargjE64FBIT1RQNSEqUf6PTjXkFiA8Mse0zQzsozZc6h192CPE3XBoYIsB2rxoarIVGKETCwKby2j2AWswFoG8+k8pIZ0TJO5NBm8J+u7fiHdnCjBgbxkUwPGKqb/ZhP8Jk8b0AyCpHBHJaC95bUqTBjCBHljRFYU7i697g==</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">컴 잘 모르지만 배송도 이상없이 빠르게 잘 왔고, 작동도 잘 됩니다. 좋은것 같습니다.
 깔끔한 디자인무소음 아주 아주 만족합니다소프트웨어 잘 진행되어요
@@ -596,11 +504,74 @@
 </t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>0.9846228957176208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>197.338991024676</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>주연테크 D2 14N i5-10400</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>598940</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>https://adcr.naver.com/adcr?x=CsdBT50+Ws1Xxn0co7AXK////w==kWh/ORUb2crVJaPDp1B+Z3JkxdXBzdfq5ycvfdlf+zNASapkvRHcaM3S0ZmEOrj5xAD26uRA+0D9OEnPbgpskAcPP5cp8eUDfSpvXdwesBEeT/k4NlON4vX4S7IG/FKwx3LmmV0H0tVm9ECZ8xSc7HPMHebjny3KJpH1RJnejWxgiKFL1jEXgBU6lpj2W6viThNQETfL43+cwAbTKEJdE2C5WrnFn6Tl9NNizwgoIfJfAvrqEsMP2+laycjisUZnVcW+yDertmQXsMfsPqh0E66NVsiwNjJ1SHJaBrCnGKVJhEZ1kB+xsHz5aunSkc8sx/wv3d+vWk0QRxg2lmthDeIOWcBn7Y/6JEGcI2fJWgqQSHDxBzcE4MvbDu8xEcg2DxLSqwlvwOpf518JzKcCB6OvU+5gqjwndBrftPUb/fl0TtLC38/bBx2DzBixClPiljgliWDbhlJvAdXh8qVrJRa8GVQyKh0GdmKq73mTsRWe+A4d7ACTs/qvCB6Jb9YOWl6j9/uCCxZZMf7v7Ij1U6qM58NtMK6luKpA3eGKt0A3yfzrR5w3isUaP81Q5/Ks5OE3JqrSnYtlTbKZNFka5UpDUEShbZbR1KK0aLK55r2e6g6t+evqPfCY7AeK26MV2CQnoWgCGWzUuWwweSLPHEeb/f17fK1ZcSf7+l/xJ6EAEsbrle1QpVJ+nXTJneCZAfKwdPqUqXggJ6AOvwxlJllyaAzT9d00PvJ9l1CRIjiZ5ExRPXyBIRZ3C/EkRUVPi</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">다 좋은데요, 옆에 부분이 유리로 되어있어서 안에 포장지 빼고 다시 끼우려다가 금방 깨져버렸어요.. .정말 조심히했고 세게 부딪힌곳 없는데 나사로 조이려고 올려놓는순간 와장창...왜 굳이 유리로 하셨는지모르겠네요.그거빼면 만족해요.
+와우 속도가 엄청빨라요.아들램 컴으로 주문했는데맘에들어하네요
+배송도빠르고상품도 잘받았습니다.상품 만족합니다.
+잘 받아서 사용하는데 아직은 문제가 없습니다. 한달후 리뷰를 남길게요.
+가격대비 성능이 최고
+사이즈는 조금 생각보다 큰데 소음없고 화이트라 맘에 듭니다
+가성비 디자인 좋은제품이에요
+조립상태가 너무 깔끔해서 놀랐어요 그 정도로 잘 해서 보내줬어요!
+가격대비 성능 완전 만족합니다.
+제품은 만족하는데 윈도우 설치 없이 구매시 그에 관련된 설명이 좀 있었으면 좋겠어요~그부분이 아쉽네요
+잘사용하고있습니다!!!
+빠른 배송 너무 좋아요~ 잘 샀네요~!!
+빠른 배송 감사합니다.
+배송빠르고 가성비 너무 좋은 제품입니다.
+컴퓨터 빠르고 조아요
+며칠 사용해봤는데, 조용하고 좋네요~
+</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9928325414657593</v>
+      </c>
+      <c r="F3" t="n">
+        <v>165.7649416411927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>주연테크 CG256X67XT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1898950</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>https://adcr.naver.com/adcr?x=ZMKbk0+DoVbfLncKhHbXo////w==kyUCRH+zWxOhgdLqNLZsNjaj7XeBi0MzXHbXZQKPoPyjXAFB/f1XEE7zn9MgYYfRO9P3CsfX+p/ayu1Kybae315anmJc2hxRWn7fPk5t4hzm8g42GbGqtL8D1QSa4NBnC/pov3GB+GOcSOry/j6CNLSbqDsLxVKb35uM0mKj7CyVl4I5FodYuVPzG8ZuzhvinNbtRn3q8ywGElr8fAAVAMCQUpxJUq1V4nJ4MwiIrv70RPd6RfFCKrl9prsNyHgrWqK6PqFhZ/7rGTTede9xjOh1icjniwbCcEW1mztpvAGLCaH2OCdOVWeH/6sXYvex7tyY6oA6H0L30usY00lX9EmzkFwgJGYrKnS7oigYXWOPap6DpDjX4LoPLoTXICM66NQGxCVq6WvNsWj+rbTlFiQSNHdFtZonJ8n5DrRjiXcbFpdZhQqtfdQc71i9vjaW36imZ0wgqte1vFOp3laQhDTLd60lPAoEkiGW2LK7lspHw9PDHeYXtvseYK3HbnhkrgItmJJVedY/90H8K+0dWEFUhPJNodA8kpi0udaRJDv5cZGiXOa/VccGiEFqVcyuWLZFKsJZDPAohbzsVNkImmG7XM2wZ3HjtmfBsJhdeaj8mPV9f10eLrO1K15Wt/aNQCDGxfGTQhhR/Yyq+biYRBnf0xp2DOIh3YKgg/Zc9Y1+2Yl/8OFuUfxCWZ1ahlwy9lPqG+xdl47jRtQf1xNW2LXG+1emYovP95BOSOHLP60a+C8wFc4N+RW6wHcL3AdgIovOjEAHJY5I4Yf7Rt6/Zug==</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>0.9846228957176208</v>
+        <v>0.4415282607078552</v>
       </c>
       <c r="F4" t="n">
-        <v>197.3192175786815</v>
+        <v>23.25117884661815</v>
       </c>
     </row>
     <row r="5">
@@ -610,11 +581,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>479000</v>
+        <v>468990</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>https://cr.shopping.naver.com/adcr.nhn?x=4DmeZUSkikGT0T1FwvAkVf%2F%2F%2Fw%3D%3DsDaUJiEM4PdGGkSqDZUEZo6tcw%2B4kMxyjh%2BMGAVzdjcCujAbsrYOW8oISqPV2dWZVKwBi5OWbBHlwlBsUvloBg37xu167n2Zt7CRGqI3ogQS6doLvQ%2BSsqaKpRD6x%2FCZSWj4jT3v7S8BbpSLSxCU7PFVd6Z%2BmZ5fvTALbBBPmfKIM%2F%2BlQk6a1HFUK42nfWkydUoDGc%2BrRh1evN3IS163jt01B%2FUJzVInOm0ahwuXexGgfk8uwjVSZSs%2FqVK6l%2FOzbq0TAHdEiUnUklCQDO2PZjQOYo6k1Oo50TUU4fpFFbAIHs%2F2PHkpmvWjL2qy1nHubj9KEByAK5FkxY8CffpM%2FB%2FPdBEHWo8TzgU%2FzYv%2FG2oJKjRp2D9pkBhcJdqPQCXkTNyvQfW1zeZ8weGERYyR3aDsEnUyoE5uZ5vMslx7lkaQLSv5SYzis5SVdiBAX6a8Re9gotdj1S4HrD1hQ2lnwnNDiVkEv0yfZzj1T3XW%2FwXjgjEX49wmfqE%2B6ugH7lNZ4r8QtEUn9M8MLyA0gDhgYxA1q4RxHKdKf%2Fyis4rudz3QygPobdAVhUdjO28uC6aKpQXu0%2FOJFEsha%2F4xZVww1nFdznR4EhPC6BI08fc6TT2xWkbDrUFJ2hBG8QaB8WVzn&amp;nvMid=25056921522&amp;catId=50001738</t>
+          <t>https://cr.shopping.naver.com/adcr.nhn?x=kqOqOIHxCMjQHsXA%2F1CxPP%2F%2F%2Fw%3D%3DsZ0vcA%2FLbRwsxgO2qt3HAfpw%2BaCRwasbWNYQRRlUfAtu2Fu1o0D8VOChtl1jehFX%2Boiy7%2BsjLq1NuRX92jaD%2BExHppX%2FMtJ1VD0tlSJ6na98d2BRryaOAimOWnggWr8Kx5q22h4jawojjKH6TnPAYZ8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKazTuCHcg7NN8Tif%2BB%2Fmu5XMO0wFiEHuJ%2Btuu7v7RQySIxrvI4KC4OXjytIKs7LQQGk8LAPo6T5d78ZFNpYybO2MjnQdnL9wtXZ1LI9BLQeEQhkkHXK4%2FmSRy5icYE%2F27ZC%2BSXUxwyLUckntucAABteHSxQty4rwMoIhca3upGXc6JIeyjRJJG8AQSjlBThBKJuZnGi0E1SQ7eNqR0uSFikF%2FOH7zUVEar6rC3HzWjIUiNvEAyH7XT6ObGe95mRdUAKGOvCNFhqM4rUPzb0E%2Fez7jT%2FSbffAFJfFGLyLj%2Fg4x6s9nafTiLW20QediWHt%2FVAAsHbx4GAAkY6Khs4fSaO9barVkGm5X%2F%2B%2B0pSBMYeeSviMIgvzHZ2jvvc0DCm4mmZjvOQ7mFs2rdvehKKllKG9TZjqEQTAbFzUBl8432wvhVEAf6wwM5tqtSh0bB5Hx&amp;nvMid=25056921522&amp;catId=50001738</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -634,9 +605,9 @@
 배송은 조금 오래걸렸지만 나름 포장 꼼꼼하게 되어있는거는 마음에 듭니다.박스 개봉후에 설치테스트까지 해보니 구동 잘됙고 좋네요. 다만 케이스 아크릴부분이 살짝 금이 가있어서 보기 그렇지만 사용에 문제가 없어서 그 부분 빼고는 만족합니다.
 포장을 이중으로 잘해서 도착하여 윈도우 설치하고 프린터 설치하고 기존 컴터자료 옮기고... 조용하게 잘구동됩니다. 사양도 필요한만큼 넉넉히 추가하였는데 HDD추가를 할껄 후회합니다. 다음에 추가장착 하여야겠어요. 좋은 상품 잘쓰겠습니다. 나중에 a/s도 잘 부탁드리며 포토상품평 기분좋게 올립니다.
 1. 사진 [너른 공간]은 기존 쓰던 컴퓨터와 HDD와 SSD 떼내어 새 컴퓨터에 부착한 모습입니다. 공간이 정말 넓고 군더더기가 없으며, 가볍습니다. HDD를 달아 무게가 조금 생겼지, 처음 제품의 무게는 너무 가벼웠지요.2. 사진 [fan의 빛]은 컴퓨터를 켰을 때, 은은하고 아름다운 빛이 나네요. 생각보단 촌스럽지 않고 세련됐습니다.3. 사진 [셋팅 이후]는 셋팅 후 컴퓨터를 켰을 때 모습입니다. 기존 컴퓨터의 하드디스크를 장착하고, UEFI 방식으로 윈도우 10을 직접 깔고(기존 Legacy 방식을 UEFI 방식으로 전환) 컴퓨터를 보니 뿌듯했습니다. 조금은 설치하느라 시간 품을 팔았지만, 저렴한 가격으로 좋은 컴퓨터를 샀고, 내 스스로 이런 저런 장치 를 장착하고 소프트웨어를 설치하니 좋았습니다.4. 사진 [4K지원]은 4K 지원 모니터를 내장 그래픽 카드가 지원하는 것을 보여 줍니다. 처음에 4K 지원이 안될 수도 있다는 판매자 측의 조언이 있었지만, 사양 대비 가격이 워낙 저럼해 도전을 해 보았는데, 4K 지원이 되었습니다. 다만 60Hz는 아니고 30Hz fps 입니다.이 만한 가격으로 이런 고사양의 컴퓨터 구하기 쉽지 않습니다. 조금 귀찮아도 직접 윈도우 10 깔아 보시고 기존에 쓰던 하드디스크도 장착해서 잘 활용하세요.이름 : 이중원주문번호 : 주문번호 : 3553028869구매처 : G마켓
-아직 윈도우랑 오피스 설치전이지만 물건 만족합니다. 같이보내주신 패드도 이쁘네요.또 pc 살일 있으면 여기서 구매하고 싶네요 다른 분들에게도 추천해줘야겠어요.특히 포장도 뽁뽁이랑 에어봉지로 꼼꼼하게 잘되어 있었습니다.
 부모님 컴퓨터를 알아보던중 좋은 제품이있어서 구매하였는데 가격도 좋고 제품 포장부터가 너무 좋았습니다. 다른곳은 겉에만 완충제를 넣어 보내주던데 여기는 내부까지 꼼꼼하게 신경 써주시는 모습에 감동입니다. 받자마자 포장 뜯고 설치했더니 부팅도 엄청 빠르고 좋습니다.
 업데이트 하며 10년 쓰던 컴퓨터 버리고 새 컴퓨터 사기 위해 일주일정도  컴퓨터 공부해서  정말이지 기대반 의심반으로 구매하게 되었습니다배송 늦어진다는 말이 있었지만  전 1일날 주문했는데  어제 3일 받았습니다  조립한  컴퓨터 치고는 엄청 빠르게 배송됐네요그리고 뚜껑을 열고  제품 및  조립상태를 꼼꼼히  살펴보았는데주문한 하드웨어 제품이 다 일치하는 것은 물론이거니와 조립상태나 회선 처리가 아주 깔끔하고 편의성 높게 되어있어  전문가의 손길이 느껴 졌습니다가격면에서도 제가 직접 부품 사서 조립해도 이 가격을 맞출수 없을것 같아요~~~ 온라인 최저가!!!!심지어 프리플로우 업체쪽에 이렇게 해서 남는것은  있냐고 묻고싶어요아직 윈도우는 깔기 전이지만 주문한  하드웨어면에서는 별 5개중에 7개 드립니다!!!!!엄청 마음에 듦!!!!!!  최고!!!!!2년뒤 첫째 중학교 들어가면 재구매 하겠습니다^^
+아직 윈도우랑 오피스 설치전이지만 물건 만족합니다. 같이보내주신 패드도 이쁘네요.또 pc 살일 있으면 여기서 구매하고 싶네요 다른 분들에게도 추천해줘야겠어요.특히 포장도 뽁뽁이랑 에어봉지로 꼼꼼하게 잘되어 있었습니다.
 5월에 1대 구매 후 문제 없이 잘 구동되는 거 보구 2대 추가 구매 했네요.배송도 빠르고 각 컴퓨터당 큰 박스에 담아 에어캡도 빵빵하게 안정하게 포장해주시고 정말이지 택배사에서 막던저도 절대 망가지지 않을 포장이였습니다. ㅎㅎ윈도우 설치 후 안정적으로 하드웨어적 오류도 없이 잘 사용하고 있습니다.병원에서 사용하고 있는데 계속적으로 문제 없으면 여기서 계속 구매해야 할것 같네요.ㅎ많이 파세요~
 이건 뭐 최고네요!!!!기존 PC가 너무 오래되어 인터넷도하고 게임도 좀 하려고 컴퓨터 조립을 알아보던 중 인터넷 모사이트 검색으로 알게되었는데 이건 뭐 제가 최저가로 부품사서 조립해도 이 금액정도밖에 안되서 정말 이사양이 맞나 몇번 확인하고 주문했습니다.결과는 대 만족입니다. 포장도 대박, 사양도 대박이네요.보유하고 있던 SSD와 크래픽카드를 연결해야 하기에 선정리 좀 내 스타일로 하고 윈도우 깔고 잘 사용 중에 리뷰 남기네요.사양도 설명에 오피스용이라고 되어있긴 하지만 10세대 i5 CPU에 SSD, 정격 잘만 파워까지 그래픽카드만 쓸만하거 꼽아 사용하면 현존하는 게임 모두 돌릴 수있는 게임용으로 변신 가능하니 현재 기준에서 가성비 원탑이라고 자부해도 될 정도네요.추후 회사에 PC가 필요하던지 아이들이 좀 더 커서 PC가 추가로 필요하게 될 때에 주저없이 꼭 이 회사부터 확인하고 여러 조건을 따져보고 구매할 생각입니다. 소비자에게 좋은 조건으로 오래도록 판매되길 바랍니다.감사합니다!!!
 </t>
@@ -646,7 +617,7 @@
         <v>0.9774186015129089</v>
       </c>
       <c r="F5" t="n">
-        <v>204.0539877897513</v>
+        <v>208.4092627802105</v>
       </c>
     </row>
     <row r="6">
@@ -660,7 +631,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>https://cr.shopping.naver.com/adcr.nhn?x=12N%2F1KIM9XpU4QJOR%2B2lmP%2F%2F%2Fw%3D%3DsVj%2FGT5%2B79L5%2BF9oxwHi9l55p8VH7al8TxYEtH4ZYKKqujAbsrYOW8oISqPV2dWZVmpIE7f723i110MCiDpX9hX7xu167n2Zt7CRGqI3ogQS6doLvQ%2BSsqaKpRD6x%2FCZSWj4jT3v7S8BbpSLSxCU7PFVd6Z%2BmZ5fvTALbBBPmfKKr2RW%2FF3UWh7d6qlOh%2BE7SvZhxPROR2bli2RLJh%2FQOr01B%2FUJzVInOm0ahwuXexGgfk8uwjVSZSs%2FqVK6l%2FOzbq0TAHdEiUnUklCQDO2PZjQOYo6k1Oo50TUU4fpFFbAIHs%2F2PHkpmvWjL2qy1nHubTcCQHlOPD5BBsL5SfJDIdDNdlWQdqxHyUseKYxrXkuJKjRp2D9pkBhcJdqPQCXkT0FGoZoaLSGeJjnadbaLTJ87o9lzIcDmx9lo7x3HU3ZYLSv5SYzis5SVdiBAX6a8RQCJA36XTRGqNYyZHjYDn5Td2EuMlwYpGhW8s%2B%2Fjt6ZF14L2XzZRv7OrCO4y%2FldwMH2OKTsAzZDk%2Ba3e3vfG4Ul5ufdmwsNIHBeBY21FNGQoR%2Fg4W%2FomiyyvvVoKKLvHIv2JbLDo2iv2z2YpBWtZN7ablpj1J%2BKJg7YXHfiYuRBorUTEAK0BcBmtpTE%2B1WKsT%2FPwHpTSstqLhm9BiY7zCrUHQIiXcF4qwUXZ2sX76wW8%3D&amp;nvMid=21745669349&amp;catId=50001738</t>
+          <t>https://cr.shopping.naver.com/adcr.nhn?x=LgXo05teAqhwPKcofvtGsv%2F%2F%2Fw%3D%3Dsyl70HPtEI0ONWHQwxJd%2FIZzFfcFUo1dgw3qjXWA5Gp%2B2Fu1o0D8VOChtl1jehFX%2Bsu6aIJxAFfRlmqF5ZxlU4BHppX%2FMtJ1VD0tlSJ6na98d2BRryaOAimOWnggWr8Kx5q22h4jawojjKH6TnPAYZ8v%2BjB2erv%2BZ%2Brrs5VHOiTQgGE7%2BZatKjf5hEf1XctkKdosYypUrV7CRmQeR0%2FPqcXMO0wFiEHuJ%2Btuu7v7RQySIxrvI4KC4OXjytIKs7LQQGk8LAPo6T5d78ZFNpYybO2MjnQdnL9wtXZ1LI9BLQeEQhkkHXK4%2FmSRy5icYE%2F27ZC%2BSXUxwyLUckntucAABtShN%2FI0QaL8W9GhO4hEUck86JIeyjRJJG8AQSjlBThBKp4%2FKyYAyehb4a50hx9pGuaQpI1%2FEBfXDb3%2FcORJyJCAiNvEAyH7XT6ObGe95mRdUMO2Cb8A8aY5eUPtHmD4iuckHoumCnEYg2W4m8cgTMCghys%2BaqVqizDTwW3TaDNFx7WXBDzGZduTxep7yV5M%2FpLsD%2FS9I%2B2LxwdjijZ9qy3BuCBK9jQ4OWvLHX%2BdPgmFdfaECsA2kc0Y9qq4CovFfS7%2BGBoyQkiFtSLwcV09cBvfdaXyfdnBuEOLaAPaw3ZVSz7dpdUoAsBnXta7pPzsSMw4SwcLvxUEucVmH%2BcOht40%3D&amp;nvMid=21745669349&amp;catId=50001738</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
